--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2629.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2629.xlsx
@@ -354,7 +354,7 @@
         <v>1.558590733426341</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.671609096839828</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2629.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2629.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7941950857540636</v>
+        <v>1.252965807914734</v>
       </c>
       <c r="B1">
-        <v>1.558590733426341</v>
+        <v>2.364249706268311</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.366795778274536</v>
       </c>
       <c r="D1">
-        <v>1.671609096839828</v>
+        <v>2.46784234046936</v>
       </c>
       <c r="E1">
-        <v>0.8909319243813524</v>
+        <v>1.361463665962219</v>
       </c>
     </row>
   </sheetData>
